--- a/inputs/sorted_countries.xlsx
+++ b/inputs/sorted_countries.xlsx
@@ -31,24 +31,69 @@
     <x:t>Population</x:t>
   </x:si>
   <x:si>
+    <x:t>Australia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oceania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canberra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North America</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ottawa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Africa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Africa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pretoria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Europe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Berlin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tokyo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mexico</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mexico City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Russia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moscow</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nigeria</x:t>
   </x:si>
   <x:si>
-    <x:t>Africa</x:t>
-  </x:si>
-  <x:si>
     <x:t>Abuja</x:t>
   </x:si>
   <x:si>
-    <x:t>Germany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Europe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Berlin</x:t>
-  </x:si>
-  <x:si>
     <x:t>Brazil</x:t>
   </x:si>
   <x:si>
@@ -58,55 +103,10 @@
     <x:t>Brasilia</x:t>
   </x:si>
   <x:si>
-    <x:t>Australia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oceania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canberra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mexico</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North America</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mexico City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Russia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moscow</x:t>
-  </x:si>
-  <x:si>
     <x:t>India</x:t>
   </x:si>
   <x:si>
-    <x:t>Asia</x:t>
-  </x:si>
-  <x:si>
     <x:t>New Delhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ottawa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Africa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pretoria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tokyo</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -491,10 +491,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="0">
-        <x:v>923768</x:v>
+        <x:v>7692024</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>206139589</x:v>
+        <x:v>25687041</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -508,10 +508,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0">
-        <x:v>357022</x:v>
+        <x:v>9984670</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>83240525</x:v>
+        <x:v>38005238</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -525,10 +525,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0">
-        <x:v>8515767</x:v>
+        <x:v>1219090</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>212559417</x:v>
+        <x:v>59308690</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -542,10 +542,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="0">
-        <x:v>7692024</x:v>
+        <x:v>357022</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>25687041</x:v>
+        <x:v>83240525</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -559,10 +559,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="0">
-        <x:v>1964375</x:v>
+        <x:v>377975</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>128932753</x:v>
+        <x:v>126476461</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -576,10 +576,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0">
-        <x:v>17098246</x:v>
+        <x:v>1964375</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>144104080</x:v>
+        <x:v>128932753</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -587,50 +587,50 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="D8" s="0">
-        <x:v>3287263</x:v>
+        <x:v>17098246</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>1393409038</x:v>
+        <x:v>144104080</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="D9" s="0">
-        <x:v>9984670</x:v>
+        <x:v>923768</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>38005238</x:v>
+        <x:v>206139589</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="0">
-        <x:v>1219090</x:v>
+        <x:v>8515767</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>59308690</x:v>
+        <x:v>212559417</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -638,16 +638,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D11" s="0">
-        <x:v>377975</x:v>
+        <x:v>3287263</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>126476461</x:v>
+        <x:v>1393409038</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/inputs/sorted_countries.xlsx
+++ b/inputs/sorted_countries.xlsx
@@ -40,6 +40,15 @@
     <x:t>Canberra</x:t>
   </x:si>
   <x:si>
+    <x:t>Brazil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South America</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brasilia</x:t>
+  </x:si>
+  <x:si>
     <x:t>Canada</x:t>
   </x:si>
   <x:si>
@@ -49,64 +58,55 @@
     <x:t>Ottawa</x:t>
   </x:si>
   <x:si>
+    <x:t>Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Europe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Berlin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>India</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Delhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tokyo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mexico</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mexico City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nigeria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Africa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abuja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Russia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moscow</x:t>
+  </x:si>
+  <x:si>
     <x:t>South Africa</x:t>
   </x:si>
   <x:si>
-    <x:t>Africa</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pretoria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Germany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Europe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Berlin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tokyo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mexico</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mexico City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Russia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moscow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nigeria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abuja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brazil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South America</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brasilia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>India</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Delhi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -508,10 +508,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0">
-        <x:v>9984670</x:v>
+        <x:v>8515767</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>38005238</x:v>
+        <x:v>212559417</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -525,10 +525,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0">
-        <x:v>1219090</x:v>
+        <x:v>9984670</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>59308690</x:v>
+        <x:v>38005238</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -559,10 +559,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="0">
-        <x:v>377975</x:v>
+        <x:v>3287263</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>126476461</x:v>
+        <x:v>1393409038</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -570,16 +570,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0">
-        <x:v>1964375</x:v>
+        <x:v>377975</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>128932753</x:v>
+        <x:v>126476461</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -587,16 +587,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="0">
-        <x:v>17098246</x:v>
+        <x:v>1964375</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>144104080</x:v>
+        <x:v>128932753</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -604,10 +604,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D9" s="0">
         <x:v>923768</x:v>
@@ -618,19 +618,19 @@
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="0">
-        <x:v>8515767</x:v>
+        <x:v>17098246</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>212559417</x:v>
+        <x:v>144104080</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -638,16 +638,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D11" s="0">
-        <x:v>3287263</x:v>
+        <x:v>1219090</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>1393409038</x:v>
+        <x:v>59308690</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/inputs/sorted_countries.xlsx
+++ b/inputs/sorted_countries.xlsx
@@ -15,21 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Continent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Capital</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Population</x:t>
-  </x:si>
   <x:si>
     <x:t>Australia</x:t>
   </x:si>
@@ -457,7 +442,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E11"/>
+  <x:dimension ref="A1:E10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -473,180 +458,163 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
+      <x:c r="D1" s="0">
+        <x:v>7692024</x:v>
+      </x:c>
+      <x:c r="E1" s="0">
+        <x:v>25687041</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="D2" s="0">
-        <x:v>7692024</x:v>
+        <x:v>8515767</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>25687041</x:v>
+        <x:v>212559417</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="D3" s="0">
-        <x:v>8515767</x:v>
+        <x:v>9984670</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>212559417</x:v>
+        <x:v>38005238</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="D4" s="0">
-        <x:v>9984670</x:v>
+        <x:v>357022</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>38005238</x:v>
+        <x:v>83240525</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="D5" s="0">
-        <x:v>357022</x:v>
+        <x:v>3287263</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>83240525</x:v>
+        <x:v>1393409038</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D6" s="0">
-        <x:v>3287263</x:v>
+        <x:v>377975</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>1393409038</x:v>
+        <x:v>126476461</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="D7" s="0">
-        <x:v>377975</x:v>
+        <x:v>1964375</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>126476461</x:v>
+        <x:v>128932753</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D8" s="0">
-        <x:v>1964375</x:v>
+        <x:v>923768</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>128932753</x:v>
+        <x:v>206139589</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0">
-        <x:v>923768</x:v>
+        <x:v>17098246</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>206139589</x:v>
+        <x:v>144104080</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D10" s="0">
-        <x:v>17098246</x:v>
+        <x:v>1219090</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>144104080</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D11" s="0">
-        <x:v>1219090</x:v>
-      </x:c>
-      <x:c r="E11" s="0">
         <x:v>59308690</x:v>
       </x:c>
     </x:row>
